--- a/PCB/synchronizer v1.0 BOM.xlsx
+++ b/PCB/synchronizer v1.0 BOM.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filipe Carvalho\Documents\BitBucket\Device.Synchronizer\PCB\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="11610" yWindow="-15" windowWidth="11445" windowHeight="9645"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="106">
   <si>
     <t>Description</t>
   </si>
@@ -31,27 +36,12 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>Price/Unit</t>
-  </si>
-  <si>
-    <t>Total Price</t>
-  </si>
-  <si>
     <t>Farnell</t>
   </si>
   <si>
     <t>Board</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>PCB</t>
-  </si>
-  <si>
-    <t>Assembly</t>
-  </si>
-  <si>
     <t>Components</t>
   </si>
   <si>
@@ -344,12 +334,6 @@
   </si>
   <si>
     <t>Buffers e line drivers 1.65-5.5V Single Non-Inverting TTL</t>
-  </si>
-  <si>
-    <t>71mmx136mm 3x</t>
-  </si>
-  <si>
-    <t>1.5h</t>
   </si>
   <si>
     <t>Acrylics</t>
@@ -358,11 +342,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -693,7 +677,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -817,17 +801,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -873,7 +846,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -886,10 +859,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -899,18 +868,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1035,7 +992,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1067,9 +1024,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1101,6 +1059,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1276,36 +1235,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H42" sqref="H42"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="23" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="15" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="68" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="24.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="1"/>
+    <col min="7" max="7" width="9.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A1" s="22" t="s">
-        <v>8</v>
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>3</v>
@@ -1322,932 +1279,626 @@
       <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="6">
+        <v>9</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="6">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="6">
+        <v>19</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="6">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="6">
+        <v>11</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="6">
+        <v>9</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="6">
+        <v>12</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="6">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="6">
+        <v>2</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="11"/>
+      <c r="C27" s="6">
+        <v>1</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="F27" s="12">
+        <v>2396301</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="B2" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="8">
-        <v>1</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="G2" s="11">
-        <v>1.04</v>
-      </c>
-      <c r="H2" s="11">
-        <f t="shared" ref="H2:H35" si="0">G2*C2</f>
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="B3" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="8">
-        <v>1</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="11">
-        <v>4.57</v>
-      </c>
-      <c r="H3" s="11">
-        <f t="shared" si="0"/>
-        <v>4.57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="B4" s="21" t="s">
+      <c r="D28" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="6">
+        <v>1</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="12">
+        <v>2517863</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="11"/>
+      <c r="C30" s="6">
+        <v>1</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="12">
+        <v>2575220</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="6">
+        <v>1</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="10">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="10">
+        <v>1</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="10">
+        <v>9</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="7">
+        <v>1733419</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="10">
+        <v>9</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="7">
+        <v>1733427</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="10">
         <v>18</v>
       </c>
-      <c r="C4" s="8">
-        <v>1</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="11">
-        <v>0.443</v>
-      </c>
-      <c r="H4" s="11">
-        <f t="shared" si="0"/>
-        <v>0.443</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="B5" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="8">
-        <v>1</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="11">
-        <v>4.12</v>
-      </c>
-      <c r="H5" s="11">
-        <f t="shared" si="0"/>
-        <v>4.12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30">
-      <c r="B6" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="8">
-        <v>9</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="G6" s="11">
-        <v>0.70599999999999996</v>
-      </c>
-      <c r="H6" s="11">
-        <f t="shared" si="0"/>
-        <v>6.3539999999999992</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="B7" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="8">
-        <v>1</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="11">
-        <v>0.32600000000000001</v>
-      </c>
-      <c r="H7" s="11">
-        <f t="shared" si="0"/>
-        <v>0.32600000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="B8" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="8">
-        <v>2</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="11">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="H8" s="11">
-        <f t="shared" si="0"/>
-        <v>0.182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="B9" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="8">
-        <v>1</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="11">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="H9" s="11">
-        <f t="shared" si="0"/>
-        <v>9.0999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="45">
-      <c r="B10" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="8">
-        <v>19</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="B11" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="8">
-        <v>1</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="H11" s="11">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="B12" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="8">
-        <v>1</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="11">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="H12" s="11">
-        <f t="shared" si="0"/>
-        <v>0.29899999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="B13" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="8">
-        <v>1</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G13" s="11">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="H13" s="11">
-        <f t="shared" si="0"/>
-        <v>0.11799999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="B14" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="8">
-        <v>2</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="D36" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="7">
+        <v>1514409</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="11"/>
+      <c r="C37" s="10">
+        <v>1</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="G14" s="11">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="H14" s="11">
-        <f t="shared" si="0"/>
-        <v>0.34399999999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="B15" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="8">
-        <v>1</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="G15" s="11">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="H15" s="11">
-        <f t="shared" si="0"/>
-        <v>9.0999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="30">
-      <c r="B16" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="8">
-        <v>11</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="11">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="H16" s="11">
-        <f t="shared" si="0"/>
-        <v>1.0009999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="8">
-        <v>1</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="11">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="H17" s="11">
-        <f t="shared" si="0"/>
-        <v>9.0999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="8">
-        <v>1</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="11">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="H18" s="11">
-        <f t="shared" si="0"/>
-        <v>9.0999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="30">
-      <c r="B19" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" s="8">
-        <v>9</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="8">
-        <v>1</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" s="11">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="H20" s="11">
-        <f t="shared" si="0"/>
-        <v>0.16300000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="8">
-        <v>1</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="11">
-        <v>0.11</v>
-      </c>
-      <c r="H21" s="11">
-        <f t="shared" si="0"/>
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="48.75" customHeight="1">
-      <c r="B22" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" s="8">
-        <v>12</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="11">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="H22" s="11">
-        <f t="shared" si="0"/>
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="8">
-        <v>1</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="11">
-        <v>0.24</v>
-      </c>
-      <c r="H23" s="11">
-        <f t="shared" si="0"/>
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="8">
-        <v>1</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="11">
-        <v>1.68</v>
-      </c>
-      <c r="H24" s="11">
-        <f t="shared" si="0"/>
-        <v>1.68</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="8">
-        <v>1</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G25" s="11">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="H25" s="11">
-        <f t="shared" si="0"/>
-        <v>0.28100000000000003</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="8">
-        <v>2</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G26" s="11">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="H26" s="11">
-        <f t="shared" si="0"/>
-        <v>0.36199999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="19"/>
-      <c r="C27" s="8">
-        <v>1</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="8" t="s">
+      <c r="E37" s="6"/>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="20">
-        <v>2396301</v>
-      </c>
-      <c r="G27" s="11">
-        <v>6.8599999999999994E-2</v>
-      </c>
-      <c r="H27" s="11">
-        <f t="shared" si="0"/>
-        <v>6.8599999999999994E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="30">
-      <c r="B28" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="8">
-        <v>6</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="G28" s="11">
-        <v>3.25</v>
-      </c>
-      <c r="H28" s="11">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="8">
-        <v>1</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="20">
-        <v>2517863</v>
-      </c>
-      <c r="G29" s="11">
-        <v>0.66400000000000003</v>
-      </c>
-      <c r="H29" s="11">
-        <f t="shared" si="0"/>
-        <v>0.66400000000000003</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="19"/>
-      <c r="C30" s="8">
-        <v>1</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="20">
-        <v>2575220</v>
-      </c>
-      <c r="G30" s="11">
-        <v>0.98199999999999998</v>
-      </c>
-      <c r="H30" s="11">
-        <f t="shared" si="0"/>
-        <v>0.98199999999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="B31" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" s="8">
-        <v>1</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="G31" s="11">
-        <v>0.86</v>
-      </c>
-      <c r="H31" s="11">
-        <f t="shared" si="0"/>
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="18">
-        <v>1</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="G32" s="11">
-        <v>2.52</v>
-      </c>
-      <c r="H32" s="11">
-        <f t="shared" si="0"/>
-        <v>2.52</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11">
-      <c r="B33" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C33" s="18">
-        <v>1</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="G33" s="11">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="H33" s="11">
-        <f t="shared" si="0"/>
-        <v>0.71499999999999997</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11">
-      <c r="B34" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="18">
-        <v>9</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="9">
-        <v>1733419</v>
-      </c>
-      <c r="G34" s="11">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="H34" s="11">
-        <f t="shared" si="0"/>
-        <v>1.2600000000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11">
-      <c r="B35" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="18">
-        <v>9</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="9">
-        <v>1733427</v>
-      </c>
-      <c r="G35" s="11">
-        <v>0.08</v>
-      </c>
-      <c r="H35" s="11">
-        <f t="shared" si="0"/>
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11">
-      <c r="B36" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="18">
-        <v>18</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" s="9">
-        <v>1514409</v>
-      </c>
-      <c r="G36" s="11">
-        <v>0.09</v>
-      </c>
-      <c r="H36" s="11">
-        <f t="shared" ref="H36:H37" si="1">G36*C36</f>
-        <v>1.6199999999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11">
-      <c r="B37" s="19"/>
-      <c r="C37" s="18">
-        <v>1</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="11">
-        <v>5</v>
-      </c>
-      <c r="H37" s="11">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11">
-      <c r="B38" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="10">
+      <c r="C38" s="8">
         <f>SUM(C2:C37)</f>
         <v>132</v>
       </c>
       <c r="D38" s="5"/>
-      <c r="E38" s="10"/>
+      <c r="E38" s="8"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7">
-        <f>SUM(H2:H37)</f>
-        <v>65.606600000000014</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11">
-      <c r="B39" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="E39" s="13"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="14">
-        <f>88.37/3</f>
-        <v>29.456666666666667</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11">
-      <c r="B40" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="E40" s="13"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="14">
-        <f>1.5*8.5</f>
-        <v>12.75</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11">
-      <c r="G41" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="H41" s="15">
-        <f>SUM(H38:H40)</f>
-        <v>107.81326666666668</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11">
-      <c r="H42" s="24"/>
-    </row>
-    <row r="43" spans="2:11">
-      <c r="H43" s="24"/>
-    </row>
-    <row r="44" spans="2:11">
-      <c r="H44" s="24"/>
-      <c r="K44" s="24"/>
-    </row>
-    <row r="45" spans="2:11">
-      <c r="K45" s="24"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I40" s="16"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I41" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
